--- a/biology/Botanique/Kumpir/Kumpir.xlsx
+++ b/biology/Botanique/Kumpir/Kumpir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le kumpir est une spécialité turque de restauration rapide. Il est très largement répandu dans les Balkans (en turc : kumpir ; en serbe : krompir ; en croate : krumpir ; en macédonien : kompir).
 Ce mets consiste en une pomme de terre assez grosse, enveloppée de papier aluminium et cuite au four, puis fourrée d'ingrédients divers.
-La pomme de terre est coupée en deux et sa chair est mélangée avec du beurre et du fromage (fromage kasseri, au lait de brebis[1] à l'origine, mais on utilise aussi la mozzarella). Divers ingrédients sont aussi ajoutés : carottes, maïs, olives, petits pois, champignons, cornichons, tzatzíki, chou rouge, ainsi que mayonnaise, ketchup et sauce chaude au poivre.
+La pomme de terre est coupée en deux et sa chair est mélangée avec du beurre et du fromage (fromage kasseri, au lait de brebis à l'origine, mais on utilise aussi la mozzarella). Divers ingrédients sont aussi ajoutés : carottes, maïs, olives, petits pois, champignons, cornichons, tzatzíki, chou rouge, ainsi que mayonnaise, ketchup et sauce chaude au poivre.
 </t>
         </is>
       </c>
